--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H2">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.655614</v>
       </c>
       <c r="O2">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P2">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q2">
-        <v>5.008052793924</v>
+        <v>17.614274181534</v>
       </c>
       <c r="R2">
-        <v>45.072475145316</v>
+        <v>158.528467633806</v>
       </c>
       <c r="S2">
-        <v>0.04950785799005737</v>
+        <v>0.08215109445320169</v>
       </c>
       <c r="T2">
-        <v>0.04950785799005737</v>
+        <v>0.08215109445320168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H3">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N3">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O3">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P3">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q3">
-        <v>0.6162615002159999</v>
+        <v>19.73756027451956</v>
       </c>
       <c r="R3">
-        <v>5.546353501943999</v>
+        <v>177.638042470676</v>
       </c>
       <c r="S3">
-        <v>0.00609214560885806</v>
+        <v>0.0920538741294083</v>
       </c>
       <c r="T3">
-        <v>0.00609214560885806</v>
+        <v>0.0920538741294083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H4">
         <v>280.043709</v>
       </c>
       <c r="I4">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J4">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.655614</v>
       </c>
       <c r="O4">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P4">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q4">
         <v>20.400064025814</v>
@@ -703,10 +703,10 @@
         <v>183.600576232326</v>
       </c>
       <c r="S4">
-        <v>0.2016678965532097</v>
+        <v>0.0951437209029556</v>
       </c>
       <c r="T4">
-        <v>0.2016678965532097</v>
+        <v>0.09514372090295559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H5">
         <v>280.043709</v>
       </c>
       <c r="I5">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J5">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N5">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O5">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P5">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q5">
-        <v>2.510311807476</v>
+        <v>22.85915895051066</v>
       </c>
       <c r="R5">
-        <v>22.592806267284</v>
+        <v>205.732430554596</v>
       </c>
       <c r="S5">
-        <v>0.02481606436459066</v>
+        <v>0.1066126771225613</v>
       </c>
       <c r="T5">
-        <v>0.02481606436459066</v>
+        <v>0.1066126771225613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H6">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I6">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J6">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.655614</v>
       </c>
       <c r="O6">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P6">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q6">
-        <v>17.533134445896</v>
+        <v>17.983199324772</v>
       </c>
       <c r="R6">
-        <v>157.798210013064</v>
+        <v>161.848793922948</v>
       </c>
       <c r="S6">
-        <v>0.1733264336432583</v>
+        <v>0.0838717219383852</v>
       </c>
       <c r="T6">
-        <v>0.1733264336432583</v>
+        <v>0.08387172193838519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H7">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I7">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J7">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N7">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O7">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P7">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q7">
-        <v>2.157524327664</v>
+        <v>20.15095694226755</v>
       </c>
       <c r="R7">
-        <v>19.417718948976</v>
+        <v>181.358612480408</v>
       </c>
       <c r="S7">
-        <v>0.02132853075224675</v>
+        <v>0.09398191205755679</v>
       </c>
       <c r="T7">
-        <v>0.02132853075224675</v>
+        <v>0.09398191205755679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H8">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I8">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J8">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.655614</v>
       </c>
       <c r="O8">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P8">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q8">
-        <v>17.015605356654</v>
+        <v>9.92679143832</v>
       </c>
       <c r="R8">
-        <v>153.140448209886</v>
+        <v>89.34112294488</v>
       </c>
       <c r="S8">
-        <v>0.1682103221104481</v>
+        <v>0.04629749558012385</v>
       </c>
       <c r="T8">
-        <v>0.1682103221104481</v>
+        <v>0.04629749558012385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H9">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I9">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J9">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N9">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O9">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P9">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q9">
-        <v>2.093840244036</v>
+        <v>11.12340152805333</v>
       </c>
       <c r="R9">
-        <v>18.844562196324</v>
+        <v>100.11061375248</v>
       </c>
       <c r="S9">
-        <v>0.02069897217964002</v>
+        <v>0.05187835730012554</v>
       </c>
       <c r="T9">
-        <v>0.02069897217964002</v>
+        <v>0.05187835730012554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H10">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I10">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J10">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.655614</v>
       </c>
       <c r="O10">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P10">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q10">
-        <v>12.420810688878</v>
+        <v>13.900877432532</v>
       </c>
       <c r="R10">
-        <v>111.787296199902</v>
+        <v>125.107896892788</v>
       </c>
       <c r="S10">
-        <v>0.1227877893884061</v>
+        <v>0.06483220842216181</v>
       </c>
       <c r="T10">
-        <v>0.1227877893884061</v>
+        <v>0.06483220842216181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H11">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I11">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J11">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N11">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O11">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P11">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q11">
-        <v>1.528431856452</v>
+        <v>15.576537719672</v>
       </c>
       <c r="R11">
-        <v>13.755886708068</v>
+        <v>140.188839477048</v>
       </c>
       <c r="S11">
-        <v>0.01510954265268748</v>
+        <v>0.07264730912410447</v>
       </c>
       <c r="T11">
-        <v>0.01510954265268748</v>
+        <v>0.07264730912410447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H12">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I12">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J12">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.655614</v>
       </c>
       <c r="O12">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415435</v>
       </c>
       <c r="P12">
-        <v>0.8904290429042905</v>
+        <v>0.4715772180415434</v>
       </c>
       <c r="Q12">
-        <v>17.695218835584</v>
+        <v>21.287146045122</v>
       </c>
       <c r="R12">
-        <v>159.256969520256</v>
+        <v>191.584314406098</v>
       </c>
       <c r="S12">
-        <v>0.174928743218911</v>
+        <v>0.0992809767447153</v>
       </c>
       <c r="T12">
-        <v>0.1749287432189109</v>
+        <v>0.09928097674471528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H13">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I13">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J13">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.026892</v>
+        <v>0.2448813333333333</v>
       </c>
       <c r="N13">
-        <v>0.080676</v>
+        <v>0.734644</v>
       </c>
       <c r="O13">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="P13">
-        <v>0.1095709570957096</v>
+        <v>0.5284227819584566</v>
       </c>
       <c r="Q13">
-        <v>2.177469478656</v>
+        <v>23.853172932812</v>
       </c>
       <c r="R13">
-        <v>19.597225307904</v>
+        <v>214.678556395308</v>
       </c>
       <c r="S13">
-        <v>0.0215257015376866</v>
+        <v>0.1112486522247002</v>
       </c>
       <c r="T13">
-        <v>0.02152570153768659</v>
+        <v>0.1112486522247002</v>
       </c>
     </row>
   </sheetData>
